--- a/biology/Microbiologie/Scyphidiidae/Scyphidiidae.xlsx
+++ b/biology/Microbiologie/Scyphidiidae/Scyphidiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Scyphidiidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l'ordre des Peritrichida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Scyphidia, peut-être dérivé du grec ancien σκίφη / skífi, « petit ver », en référence à la forme de certaines espèces de ce cilié.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Scyphidiidae ont une taille, petite (&lt; 80 µm) à moyenne (80 à 200 µm). Ils sont cylindriques à allongés, ou en forme de cloche. Leurs zooïdes sont solitaires, sans véritable tige, mais sessiles et adhérant directement aux substrats par une scopule, qui forme souvent un disque aplati, parfois étendu et souvent nettement distinct du reste du corps. Ils ont une « bande trochale » temporaire dans le télotroche (en), sauf pour le genre Ambiphrya, qui a une bande trochale ciliée en permanence. Leur région orale souvent rétractable et encerclant le pôle apical, est bordée d'une collerette plus ou moins proéminente ; la ciliature buccale est bien visible, s'enroulant dans le sens inverse des aiguilles d'une montre autour du bord du péristome proéminent. Leur macronoyau est allongé, parfois en forme de bande. Micronoyau et vacuole contractile sont présents. Leur cytoprocte n'a pas été observé[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Scyphidiidae ont une taille, petite (&lt; 80 µm) à moyenne (80 à 200 µm). Ils sont cylindriques à allongés, ou en forme de cloche. Leurs zooïdes sont solitaires, sans véritable tige, mais sessiles et adhérant directement aux substrats par une scopule, qui forme souvent un disque aplati, parfois étendu et souvent nettement distinct du reste du corps. Ils ont une « bande trochale » temporaire dans le télotroche (en), sauf pour le genre Ambiphrya, qui a une bande trochale ciliée en permanence. Leur région orale souvent rétractable et encerclant le pôle apical, est bordée d'une collerette plus ou moins proéminente ; la ciliature buccale est bien visible, s'enroulant dans le sens inverse des aiguilles d'une montre autour du bord du péristome proéminent. Leur macronoyau est allongé, parfois en forme de bande. Micronoyau et vacuole contractile sont présents. Leur cytoprocte n'a pas été observé.
 </t>
         </is>
       </c>
